--- a/Logs/Kuues nädal.xlsx
+++ b/Logs/Kuues nädal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\IT-arendus2---Original\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA944FDF-C600-49C4-8A9F-2D13808B7E80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E410A291-5CC5-4EA4-B592-7DA527D30999}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>MVC</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Praktikum</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -444,66 +453,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,7 +830,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,68 +848,68 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="36">
         <v>43535</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -957,7 +966,7 @@
       <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="21">
         <v>43529</v>
       </c>
       <c r="C8" s="6">
@@ -966,7 +975,7 @@
       <c r="D8" s="6">
         <v>0.98263888888888884</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>169.99999999999989</v>
@@ -982,7 +991,7 @@
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="21">
         <v>43531</v>
       </c>
       <c r="C9" s="6">
@@ -991,7 +1000,7 @@
       <c r="D9" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="23">
         <v>30</v>
       </c>
       <c r="F9" s="4">
@@ -999,7 +1008,7 @@
         <v>360.00000000000006</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1024,7 +1033,7 @@
         <v>150.00000000000003</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1061,7 +1070,7 @@
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="21">
         <v>43533</v>
       </c>
       <c r="C12" s="6">
@@ -1070,7 +1079,7 @@
       <c r="D12" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="23">
         <v>30</v>
       </c>
       <c r="F12" s="4">
@@ -1078,7 +1087,7 @@
         <v>329.99999999999989</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1088,7 +1097,7 @@
       <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="21">
         <v>43534</v>
       </c>
       <c r="C13" s="6">
@@ -1097,13 +1106,13 @@
       <c r="D13" s="6">
         <v>0.5</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>129.99999999999994</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1113,7 +1122,7 @@
       <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="21">
         <v>43534</v>
       </c>
       <c r="C14" s="6">
@@ -1122,7 +1131,7 @@
       <c r="D14" s="6">
         <v>0.74305555555555547</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="23">
         <v>15</v>
       </c>
       <c r="F14" s="4">
@@ -1130,7 +1139,7 @@
         <v>154.99999999999989</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1140,7 +1149,7 @@
       <c r="A15" s="17">
         <v>8</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="22">
         <v>43535</v>
       </c>
       <c r="C15" s="6">
@@ -1157,20 +1166,22 @@
         <v>165</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="19">
         <f>SUM(F7:F15)</f>
         <v>1635</v>

--- a/Logs/Kuues nädal.xlsx
+++ b/Logs/Kuues nädal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\IT-arendus2---Original\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E410A291-5CC5-4EA4-B592-7DA527D30999}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA944FDF-C600-49C4-8A9F-2D13808B7E80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -79,15 +79,6 @@
   </si>
   <si>
     <t>MVC</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>Praktikum</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -453,66 +444,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,7 +821,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,68 +839,68 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="33">
         <v>43535</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -966,7 +957,7 @@
       <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="40">
         <v>43529</v>
       </c>
       <c r="C8" s="6">
@@ -975,7 +966,7 @@
       <c r="D8" s="6">
         <v>0.98263888888888884</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>169.99999999999989</v>
@@ -991,7 +982,7 @@
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="40">
         <v>43531</v>
       </c>
       <c r="C9" s="6">
@@ -1000,7 +991,7 @@
       <c r="D9" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="42">
         <v>30</v>
       </c>
       <c r="F9" s="4">
@@ -1008,7 +999,7 @@
         <v>360.00000000000006</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1033,7 +1024,7 @@
         <v>150.00000000000003</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1070,7 +1061,7 @@
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="40">
         <v>43533</v>
       </c>
       <c r="C12" s="6">
@@ -1079,7 +1070,7 @@
       <c r="D12" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="42">
         <v>30</v>
       </c>
       <c r="F12" s="4">
@@ -1087,7 +1078,7 @@
         <v>329.99999999999989</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1097,7 +1088,7 @@
       <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="40">
         <v>43534</v>
       </c>
       <c r="C13" s="6">
@@ -1106,13 +1097,13 @@
       <c r="D13" s="6">
         <v>0.5</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>129.99999999999994</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1122,7 +1113,7 @@
       <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="40">
         <v>43534</v>
       </c>
       <c r="C14" s="6">
@@ -1131,7 +1122,7 @@
       <c r="D14" s="6">
         <v>0.74305555555555547</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="42">
         <v>15</v>
       </c>
       <c r="F14" s="4">
@@ -1139,7 +1130,7 @@
         <v>154.99999999999989</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1149,7 +1140,7 @@
       <c r="A15" s="17">
         <v>8</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="41">
         <v>43535</v>
       </c>
       <c r="C15" s="6">
@@ -1166,22 +1157,20 @@
         <v>165</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="19">
         <f>SUM(F7:F15)</f>
         <v>1635</v>
